--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -19,7 +19,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$N$9</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$N$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -110,34 +111,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">N + 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N + 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N + 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N + 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N + 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N + 6</t>
-  </si>
-  <si>
     <t xml:space="preserve">Значение</t>
   </si>
   <si>
     <t xml:space="preserve">Дата</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(наименование показателя федерального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(основной, дополни-тельный)</t>
   </si>
   <si>
     <t xml:space="preserve">3. Результаты регионального проекта</t>
@@ -716,7 +693,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -727,6 +704,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -820,7 +804,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,114 +865,126 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1009,19 +1005,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1069,7 +1069,7 @@
   <dimension ref="A6:N24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1284,239 +1284,121 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="1" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="15" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="15" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
       <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:N2"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:G4"/>
-    <mergeCell ref="H3:N3"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="94" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1532,12 +1414,12 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="R22" activeCellId="0" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="7.57"/>
@@ -1546,40 +1428,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
@@ -1588,29 +1470,29 @@
       <c r="N2" s="12"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="A3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1659,59 +1541,59 @@
     </row>
     <row r="7" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1750,7 +1632,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1763,320 +1645,320 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="H3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="I3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18" t="s">
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="B6" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="B8" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-    </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2110,16 +1992,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
@@ -2128,152 +2010,132 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="A1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
+      <c r="B3" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="32"/>
+      <c r="B4" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="A5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="32"/>
+      <c r="B6" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="A7" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-    </row>
+      <c r="B10" s="31"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2290,16 +2152,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
@@ -2308,152 +2170,40 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-    </row>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2488,218 +2238,218 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="44"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="38" t="s">
+      <c r="G9" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="38"/>
-    </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="39" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="39"/>
-    </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C11" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44" t="s">
+      <c r="D11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="E11" s="48"/>
+      <c r="F11" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="19" t="s">
-        <v>101</v>
+      <c r="G13" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="10"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19" t="s">
-        <v>104</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19" t="s">
-        <v>104</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="17" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52"/>
+      <c r="A19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
-        <v>108</v>
+      <c r="A20" s="57" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
-        <v>109</v>
+      <c r="A21" s="57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
-        <v>110</v>
+      <c r="A22" s="57" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="53" t="s">
-        <v>111</v>
+      <c r="A23" s="57" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2747,81 +2497,81 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="H1" s="36"/>
+      <c r="G1" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="39"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="36"/>
+      <c r="G3" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="39"/>
     </row>
     <row r="4" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="F4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="A7" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
+      <c r="A8" s="59"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="A10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
@@ -2831,42 +2581,42 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="56" t="s">
-        <v>122</v>
+      <c r="A27" s="60" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="56" t="s">
-        <v>123</v>
+      <c r="A28" s="60" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Основные положения" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$N$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -310,24 +310,6 @@
   </si>
   <si>
     <t xml:space="preserve">Занятость в проекте (процентов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(руководитель регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(администратор регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общие организационные мероприятия по региональному проекту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(участник регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(указывается результат(ы) регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(ответственный за достижение результата регионального проекта)</t>
   </si>
   <si>
     <t xml:space="preserve">6. Дополнительная информация</t>
@@ -804,7 +786,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,7 +900,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -929,120 +911,100 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1068,7 +1030,7 @@
   </sheetPr>
   <dimension ref="A6:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1042,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1294,11 +1256,11 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="15" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="15" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="9" style="15" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="15" style="1" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1019" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1423,8 +1385,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="6.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1994,19 +1956,19 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2039,103 +2001,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="31"/>
-    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2161,17 +2041,17 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2180,14 +2060,14 @@
       <c r="F1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
+      <c r="A2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2229,7 +2109,7 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.99"/>
@@ -2238,38 +2118,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="39"/>
+      <c r="F1" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="41"/>
+      <c r="F3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="42"/>
+      <c r="F4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2279,97 +2159,97 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="44"/>
+      <c r="A8" s="37"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B10" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48" t="s">
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44"/>
+      <c r="B11" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="C11" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="D11" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49" t="s">
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="17" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="B13" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="10"/>
       <c r="G13" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="10"/>
       <c r="G14" s="17"/>
     </row>
@@ -2377,7 +2257,7 @@
       <c r="A15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2388,68 +2268,68 @@
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>94</v>
+      <c r="B16" s="48" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>97</v>
+      <c r="B17" s="49" t="s">
+        <v>91</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="31"/>
+        <v>92</v>
+      </c>
+      <c r="B18" s="48"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31" t="s">
-        <v>99</v>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="56"/>
+      <c r="A19" s="50"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="57" t="s">
-        <v>100</v>
+      <c r="A20" s="51" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="57" t="s">
-        <v>101</v>
+      <c r="A21" s="51" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="57" t="s">
-        <v>102</v>
+      <c r="A22" s="51" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="57" t="s">
-        <v>103</v>
+      <c r="A23" s="51" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2486,43 +2366,43 @@
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="39"/>
+      <c r="G1" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="32"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="39"/>
+      <c r="G3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="F4" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2533,37 +2413,37 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59"/>
+      <c r="A8" s="53"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2589,34 +2469,34 @@
       <c r="A12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="60" t="s">
-        <v>114</v>
+      <c r="A27" s="55" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="60" t="s">
-        <v>115</v>
+      <c r="A28" s="55" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Основные положения" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,9 +18,9 @@
     <sheet name="Методика расчета" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$N$9</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$N$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -86,29 +86,6 @@
   </si>
   <si>
     <t xml:space="preserve">Период, год</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Значение</t>
@@ -136,18 +113,6 @@
 Характеристика результата федерального проекта (справочно из паспорта федерального проекта): (указывается характеристика результата федерального проекта)
 Срок (справочно из паспорта федерального проекта): (указывается срок)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(указываются результаты, создаваемые в рамках решения задачи/достижения результата федерального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.</t>
   </si>
   <si>
     <t xml:space="preserve">4. Финансовое обеспечение реализации регионального проекта</t>
@@ -224,6 +189,9 @@
       </rPr>
       <t xml:space="preserve"> (указывается наименование результата федерального проекта) </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.</t>
   </si>
   <si>
     <t xml:space="preserve">(указывается наименование результата регионального проекта) </t>
@@ -536,7 +504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -598,12 +566,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -649,6 +616,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -786,7 +761,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -875,12 +850,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -900,7 +891,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1007,7 +998,7 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1030,7 +1021,7 @@
   </sheetPr>
   <dimension ref="A6:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1249,7 +1240,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1318,20 +1309,18 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="12" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="20"/>
       <c r="B5" s="21"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="12"/>
@@ -1373,192 +1362,136 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R22" activeCellId="0" sqref="R22"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="0" width="6.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="32.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="23" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="23" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="23" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+    </row>
+    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="7">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:H2"/>
@@ -1566,15 +1499,6 @@
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:N6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:N9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1594,7 +1518,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,7 +1532,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1621,14 +1545,14 @@
       <c r="J1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>32</v>
+      <c r="B2" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -1637,32 +1561,32 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+      <c r="H3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="I3" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="J3" s="20"/>
     </row>
@@ -1670,257 +1594,257 @@
       <c r="A4" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="B4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="A5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+        <v>46</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+        <v>48</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
+        <v>50</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
+        <v>52</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="A13" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-    </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1954,16 +1878,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
@@ -1971,48 +1895,36 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
@@ -2035,13 +1947,13 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="33.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
@@ -2051,7 +1963,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2060,14 +1972,14 @@
       <c r="F1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="A2" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2103,7 +2015,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2118,38 +2030,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="32"/>
+      <c r="F1" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="34"/>
+      <c r="F3" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="35"/>
+      <c r="F4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2159,105 +2071,105 @@
       <c r="G7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
+      <c r="A8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="G9" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="40" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="41" t="s">
+      <c r="B10" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+      <c r="C11" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="D11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45" t="s">
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="17" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="10"/>
       <c r="G13" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="10"/>
       <c r="G14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="48"/>
+        <v>42</v>
+      </c>
+      <c r="B15" s="52"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2266,70 +2178,70 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>88</v>
+        <v>38</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>84</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+        <v>85</v>
+      </c>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>91</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="48"/>
+        <v>88</v>
+      </c>
+      <c r="B18" s="52"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="54"/>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="55" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="50"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="51" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="51" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2272,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2368,7 +2280,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
@@ -2377,32 +2289,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="32"/>
+      <c r="G1" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="H3" s="32"/>
+      <c r="G3" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
+      <c r="F4" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2413,37 +2325,37 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="53"/>
+      <c r="A8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -2469,34 +2381,34 @@
       <c r="A12" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="55" t="s">
-        <v>108</v>
+      <c r="A27" s="59" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55" t="s">
-        <v>109</v>
+      <c r="A28" s="59" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$N$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">Дополнительная информация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(наименование показателя и единица измерения)</t>
   </si>
   <si>
     <r>
@@ -761,7 +758,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -891,7 +888,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -986,20 +983,24 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2269,50 +2270,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="56" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="57" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="57" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="57" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="36" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="36" t="s">
+      <c r="H1" s="58"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="56" t="s">
+      <c r="H3" s="58"/>
+    </row>
+    <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F4" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-    </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
         <v>95</v>
       </c>
@@ -2325,7 +2326,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="57"/>
+      <c r="A8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
@@ -2353,71 +2354,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="59" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="60" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="F4:H5"/>
     <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A10:H10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Основные положения" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -337,70 +337,6 @@
     <t xml:space="preserve">результата</t>
   </si>
   <si>
-    <t xml:space="preserve">(указывается результат регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПС*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработан проект, направленный на улучшение качества культурной среды, в рамках реновации 1 учреждения культуры</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">РНП</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">**</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(указывается контрольная точка, являющаяся итогом выполнения ряда мероприятий регионального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПК**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выделение грантов на реновацию региональных и муниципальных учреждений отрасли культуры</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">РПК****</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Президиум Совета при Президенте Российской Федерации по стратегическому развитию и приоритетным проектам </t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Руководитель национального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Проектный комитет по основному направлению стратегического развития Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">****Региональный проектный комитет</t>
-  </si>
-  <si>
     <t xml:space="preserve">Приложение № 2</t>
   </si>
   <si>
@@ -501,7 +437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -597,15 +533,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -758,7 +685,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,7 +815,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -963,26 +890,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -999,7 +906,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,7 +933,7 @@
   </sheetPr>
   <dimension ref="A6:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2013,15 +1924,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.86"/>
@@ -2046,13 +1957,13 @@
       </c>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="39" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
@@ -2127,124 +2038,18 @@
       </c>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55" t="s">
-        <v>93</v>
-      </c>
-    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F1:G1"/>
@@ -2273,49 +2078,49 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="56" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="57" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="57" width="14.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="57" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="57" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="57" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="57" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="57" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="51" width="5.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="52" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="52" width="14.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="52" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="52" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="52" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="52" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="52" width="17.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="58" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="58"/>
+      <c r="G1" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="58"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2326,42 +2131,42 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
+      <c r="A8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="60" t="s">
-        <v>103</v>
+      <c r="A23" s="56" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="60" t="s">
-        <v>104</v>
+      <c r="A24" s="56" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Основные положения" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -124,142 +124,10 @@
     <t xml:space="preserve">Объем финансового обеспечения по годам реализации (млн. рублей)</t>
   </si>
   <si>
-    <t xml:space="preserve">Всего (млн. рублей)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">N+1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N+2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N+3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N+4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N+5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">N+6 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта):</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> (указывается наименование результата федерального проекта) </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(указывается наименование результата регионального проекта) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">федеральный бюджет (в т.ч. межбюджетные трансферты бюджету </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">(указывается наименование субъекта Российской Федерации))</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджеты государственных внебюджетных фондов Российской Федерации и их территориальных фондов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">консолидированный бюджет субъекта Российской Федерации, в т.ч.: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3.1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджет субъекта Российской Федерации</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3.2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">межбюджетные трансферты бюджета субъекта Российской Федерации бюджетам муниципальных образований</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3.3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджеты муниципальных образований (без учета межбюджетных трансфертов из бюджета субъекта Российской Федерации)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">внебюджетные источники </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего по региональному проекту, в том числе: </t>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта): (указывается наименование результата федерального проекта) </t>
   </si>
   <si>
     <t xml:space="preserve">5. Участники регионального проекта</t>
@@ -434,10 +302,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -506,29 +375,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -574,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -594,6 +440,13 @@
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -798,31 +651,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="12" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,14 +703,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -878,15 +727,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -906,11 +759,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,7 +1005,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1427,353 +1280,71 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="3" style="0" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="23" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="11" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28" t="s">
+      <c r="B4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-    </row>
-    <row r="5" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-    </row>
-    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-    </row>
-    <row r="9" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
+    </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1809,7 +1380,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1822,19 +1393,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1446,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1885,7 +1456,7 @@
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1926,8 +1497,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1943,7 +1514,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="36" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G1" s="36"/>
     </row>
@@ -1953,13 +1524,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="38" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="39" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G4" s="39"/>
     </row>
@@ -1973,7 +1544,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1987,54 +1558,54 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G9" s="44" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="G10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48"/>
       <c r="B11" s="49" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="50" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G11" s="44"/>
     </row>
@@ -2096,19 +1667,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="53" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H1" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="53" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="54" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -2120,7 +1691,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2138,35 +1709,35 @@
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="56" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Основные положения" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,9 +18,9 @@
     <sheet name="Методика расчета" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$N$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$D$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -106,13 +106,12 @@
     <t xml:space="preserve">Характеристика результата</t>
   </si>
   <si>
-    <t xml:space="preserve">Задача национального проекта (справочно из паспорта федерального проекта): (указывается наименование задачи национального проекта)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта): (указывается результат федерального проекта)
-Характеристика результата федерального проекта (справочно из паспорта федерального проекта): (указывается характеристика результата федерального проекта)
-Срок (справочно из паспорта федерального проекта): (указывается срок)
-</t>
+    <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта): # 
+Характеристика результата федерального проекта $
+Срок (справочно из паспорта федерального проекта): %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">4. Финансовое обеспечение реализации регионального проекта</t>
@@ -149,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">6. Дополнительная информация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(пояснения и комментарии в виде ссылок и сносок к отдельным положениям паспорта регионального проекта, приводимые в целях их уточнения)</t>
   </si>
   <si>
     <t xml:space="preserve">Приложение № 1</t>
@@ -631,20 +627,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -786,8 +782,8 @@
   </sheetPr>
   <dimension ref="A6:N24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -908,9 +904,9 @@
       <c r="A20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
         <v>6</v>
       </c>
@@ -1127,84 +1123,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="5.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="32.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="23" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="8" style="23" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="23" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="67.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="24" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="24" width="45.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="5" style="24" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="26" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1212,58 +1178,25 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
     </row>
     <row r="6" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A3:N3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:N6"/>
+    <mergeCell ref="B4:D6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1282,7 +1215,7 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1290,7 +1223,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="23" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="24" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.52"/>
   </cols>
@@ -1308,7 +1241,7 @@
       <c r="B2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1430,7 +1363,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1456,7 +1389,7 @@
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -1514,7 +1447,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F1" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="36"/>
     </row>
@@ -1524,13 +1457,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="39"/>
     </row>
@@ -1544,7 +1477,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1558,54 +1491,54 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="G9" s="44" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>50</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48"/>
       <c r="B11" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="D11" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="E11" s="45"/>
       <c r="F11" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="44"/>
     </row>
@@ -1667,19 +1600,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G1" s="53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="53"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G3" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="53"/>
     </row>
     <row r="4" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F4" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="54"/>
       <c r="H4" s="54"/>
@@ -1691,7 +1624,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1709,35 +1642,35 @@
         <v>13</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$D$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -216,27 +216,7 @@
     <t xml:space="preserve">Источник данных</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Ответственный за сбор данных</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
+    <t xml:space="preserve">Ответственный за сбор данных</t>
   </si>
   <si>
     <t xml:space="preserve">Уровень агрегирования информации</t>
@@ -246,52 +226,6 @@
   </si>
   <si>
     <t xml:space="preserve">Дополнительная информация</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Год начала реализации регионального проекта.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Орган исполнительной власти, иной орган или организация.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -302,7 +236,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,22 +313,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -759,7 +677,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,10 +916,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,18 +1004,9 @@
       <c r="G5" s="20"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -1106,7 +1015,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1582,7 +1490,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1664,14 +1572,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56" t="s">
-        <v>64</v>
-      </c>
+      <c r="A23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="s">
-        <v>65</v>
-      </c>
+      <c r="A24" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/app/reports/templates/passport.xlsx
+++ b/app/reports/templates/passport.xlsx
@@ -19,8 +19,8 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">Результаты!$A$1:$D$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$21</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$H$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Цель и показатели'!$A$1:$M$21</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t xml:space="preserve">П А С П О Р Т</t>
   </si>
@@ -106,48 +106,48 @@
     <t xml:space="preserve">Характеристика результата</t>
   </si>
   <si>
-    <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта): # 
+    <t xml:space="preserve">Результат федерального проекта: #  
 Характеристика результата федерального проекта $
-Срок (справочно из паспорта федерального проекта): %</t>
+Срок: %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Финансовое обеспечение реализации регионального проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование результата и источники финансирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объем финансового обеспечения по годам реализации (млн. рублей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта): (указывается наименование результата федерального проекта) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Участники регионального проекта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роль в региональном проекте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия, инициалы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Должность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Непосредственный руководитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Занятость в проекте (процентов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Дополнительная информация</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Финансовое обеспечение реализации регионального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование результата и источники финансирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Объем финансового обеспечения по годам реализации (млн. рублей)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Результат федерального проекта (справочно из паспорта федерального проекта): (указывается наименование результата федерального проекта) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Участники регионального проекта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роль в региональном проекте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фамилия, инициалы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Должность</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Непосредственный руководитель</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Занятость в проекте (процентов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. Дополнительная информация</t>
   </si>
   <si>
     <t xml:space="preserve">Приложение № 1</t>
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,19 +1070,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="n">
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -1138,7 +1136,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="29"/>
     </row>
@@ -1147,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,10 +1157,10 @@
     </row>
     <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>29</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1221,7 +1219,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -1234,19 +1232,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +1285,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -1297,7 +1295,7 @@
     </row>
     <row r="2" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
